--- a/data/7186.xlsx
+++ b/data/7186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43459,6 +43459,41 @@
         <v>91000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7186</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>SWSCAP</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>18000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7186.xlsx
+++ b/data/7186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43494,6 +43494,41 @@
         <v>18000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7186</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>SWSCAP</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>55500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7186.xlsx
+++ b/data/7186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43529,6 +43529,41 @@
         <v>55500</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7186</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>SWSCAP</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>101700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7186.xlsx
+++ b/data/7186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43564,6 +43564,41 @@
         <v>101700</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7186</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>SWSCAP</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>25000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7186.xlsx
+++ b/data/7186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43599,6 +43599,41 @@
         <v>25000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7186</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>SWSCAP</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7186.xlsx
+++ b/data/7186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43634,6 +43634,43 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7186</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>SWSCAP</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7186.xlsx
+++ b/data/7186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43671,6 +43671,41 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7186</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>SWSCAP</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>22000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7186.xlsx
+++ b/data/7186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43706,6 +43706,41 @@
         <v>22000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7186</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>SWSCAP</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>12000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7186.xlsx
+++ b/data/7186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43741,6 +43741,41 @@
         <v>12000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7186</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>SWSCAP</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>149000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7186.xlsx
+++ b/data/7186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43776,6 +43776,41 @@
         <v>149000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7186</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>SWSCAP</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>154800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7186.xlsx
+++ b/data/7186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43811,6 +43811,41 @@
         <v>154800</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7186</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>SWSCAP</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>116200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7186.xlsx
+++ b/data/7186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43846,6 +43846,41 @@
         <v>116200</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7186</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>SWSCAP</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>126100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7186.xlsx
+++ b/data/7186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43881,6 +43881,76 @@
         <v>126100</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7186</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>SWSCAP</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>132500</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7186</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>SWSCAP</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>178900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7186.xlsx
+++ b/data/7186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43951,6 +43951,76 @@
         <v>178900</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7186</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>SWSCAP</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7186</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>SWSCAP</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>58200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7186.xlsx
+++ b/data/7186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44021,6 +44021,41 @@
         <v>58200</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7186</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>SWSCAP</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>22000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7186.xlsx
+++ b/data/7186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44056,6 +44056,41 @@
         <v>22000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7186</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>SWSCAP</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>99900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7186.xlsx
+++ b/data/7186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44091,6 +44091,41 @@
         <v>99900</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7186</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>SWSCAP</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>30200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7186.xlsx
+++ b/data/7186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44126,6 +44126,41 @@
         <v>30200</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7186</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>SWSCAP</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>156500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7186.xlsx
+++ b/data/7186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44161,6 +44161,76 @@
         <v>156500</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7186</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>SWSCAP</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>143800</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7186</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>SWSCAP</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>73500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7186.xlsx
+++ b/data/7186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44231,6 +44231,41 @@
         <v>73500</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7186</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>SWSCAP</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>217500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7186.xlsx
+++ b/data/7186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44266,6 +44266,41 @@
         <v>217500</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7186</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>SWSCAP</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>233200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7186.xlsx
+++ b/data/7186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2167"/>
+  <dimension ref="A1:I2168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76711,6 +76711,41 @@
         <v>233200</v>
       </c>
     </row>
+    <row r="2168">
+      <c r="A2168" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2168" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2168" t="inlineStr">
+        <is>
+          <t>7186</t>
+        </is>
+      </c>
+      <c r="D2168" t="inlineStr">
+        <is>
+          <t>SWSCAP</t>
+        </is>
+      </c>
+      <c r="E2168" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F2168" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2168" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2168" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I2168" t="n">
+        <v>600600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7186.xlsx
+++ b/data/7186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2168"/>
+  <dimension ref="A1:I2169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76746,6 +76746,41 @@
         <v>600600</v>
       </c>
     </row>
+    <row r="2169">
+      <c r="A2169" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2169" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2169" t="inlineStr">
+        <is>
+          <t>7186</t>
+        </is>
+      </c>
+      <c r="D2169" t="inlineStr">
+        <is>
+          <t>SWSCAP</t>
+        </is>
+      </c>
+      <c r="E2169" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F2169" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2169" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2169" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2169" t="n">
+        <v>490300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7186.xlsx
+++ b/data/7186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2169"/>
+  <dimension ref="A1:I2170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76781,6 +76781,41 @@
         <v>490300</v>
       </c>
     </row>
+    <row r="2170">
+      <c r="A2170" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2170" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2170" t="inlineStr">
+        <is>
+          <t>7186</t>
+        </is>
+      </c>
+      <c r="D2170" t="inlineStr">
+        <is>
+          <t>SWSCAP</t>
+        </is>
+      </c>
+      <c r="E2170" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F2170" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G2170" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2170" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2170" t="n">
+        <v>783000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7186.xlsx
+++ b/data/7186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2170"/>
+  <dimension ref="A1:I2171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76816,6 +76816,41 @@
         <v>783000</v>
       </c>
     </row>
+    <row r="2171">
+      <c r="A2171" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2171" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2171" t="inlineStr">
+        <is>
+          <t>7186</t>
+        </is>
+      </c>
+      <c r="D2171" t="inlineStr">
+        <is>
+          <t>SWSCAP</t>
+        </is>
+      </c>
+      <c r="E2171" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F2171" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G2171" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H2171" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I2171" t="n">
+        <v>228200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7186.xlsx
+++ b/data/7186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2171"/>
+  <dimension ref="A1:I2172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76851,6 +76851,41 @@
         <v>228200</v>
       </c>
     </row>
+    <row r="2172">
+      <c r="A2172" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2172" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2172" t="inlineStr">
+        <is>
+          <t>7186</t>
+        </is>
+      </c>
+      <c r="D2172" t="inlineStr">
+        <is>
+          <t>SWSCAP</t>
+        </is>
+      </c>
+      <c r="E2172" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F2172" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G2172" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H2172" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I2172" t="n">
+        <v>152100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7186.xlsx
+++ b/data/7186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2172"/>
+  <dimension ref="A1:I2173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76886,6 +76886,41 @@
         <v>152100</v>
       </c>
     </row>
+    <row r="2173">
+      <c r="A2173" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2173" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2173" t="inlineStr">
+        <is>
+          <t>7186</t>
+        </is>
+      </c>
+      <c r="D2173" t="inlineStr">
+        <is>
+          <t>SWSCAP</t>
+        </is>
+      </c>
+      <c r="E2173" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F2173" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G2173" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H2173" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I2173" t="n">
+        <v>162000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7186.xlsx
+++ b/data/7186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2173"/>
+  <dimension ref="A1:I2174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76921,6 +76921,41 @@
         <v>162000</v>
       </c>
     </row>
+    <row r="2174">
+      <c r="A2174" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2174" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2174" t="inlineStr">
+        <is>
+          <t>7186</t>
+        </is>
+      </c>
+      <c r="D2174" t="inlineStr">
+        <is>
+          <t>SWSCAP</t>
+        </is>
+      </c>
+      <c r="E2174" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F2174" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G2174" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H2174" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I2174" t="n">
+        <v>33500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7186.xlsx
+++ b/data/7186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2174"/>
+  <dimension ref="A1:I2175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76956,6 +76956,41 @@
         <v>33500</v>
       </c>
     </row>
+    <row r="2175">
+      <c r="A2175" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2175" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2175" t="inlineStr">
+        <is>
+          <t>7186</t>
+        </is>
+      </c>
+      <c r="D2175" t="inlineStr">
+        <is>
+          <t>SWSCAP</t>
+        </is>
+      </c>
+      <c r="E2175" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2175" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2175" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H2175" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I2175" t="n">
+        <v>38600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7186.xlsx
+++ b/data/7186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2175"/>
+  <dimension ref="A1:I2176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76991,6 +76991,41 @@
         <v>38600</v>
       </c>
     </row>
+    <row r="2176">
+      <c r="A2176" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2176" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2176" t="inlineStr">
+        <is>
+          <t>7186</t>
+        </is>
+      </c>
+      <c r="D2176" t="inlineStr">
+        <is>
+          <t>SWSCAP</t>
+        </is>
+      </c>
+      <c r="E2176" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F2176" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2176" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H2176" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2176" t="n">
+        <v>31000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7186.xlsx
+++ b/data/7186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2176"/>
+  <dimension ref="A1:I2177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77026,6 +77026,41 @@
         <v>31000</v>
       </c>
     </row>
+    <row r="2177">
+      <c r="A2177" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2177" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2177" t="inlineStr">
+        <is>
+          <t>7186</t>
+        </is>
+      </c>
+      <c r="D2177" t="inlineStr">
+        <is>
+          <t>SWSCAP</t>
+        </is>
+      </c>
+      <c r="E2177" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F2177" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2177" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H2177" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I2177" t="n">
+        <v>172200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7186.xlsx
+++ b/data/7186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2177"/>
+  <dimension ref="A1:I2178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77061,6 +77061,41 @@
         <v>172200</v>
       </c>
     </row>
+    <row r="2178">
+      <c r="A2178" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2178" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2178" t="inlineStr">
+        <is>
+          <t>7186</t>
+        </is>
+      </c>
+      <c r="D2178" t="inlineStr">
+        <is>
+          <t>SWSCAP</t>
+        </is>
+      </c>
+      <c r="E2178" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F2178" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G2178" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H2178" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I2178" t="n">
+        <v>2800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7186.xlsx
+++ b/data/7186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2178"/>
+  <dimension ref="A1:I2179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77096,6 +77096,41 @@
         <v>2800</v>
       </c>
     </row>
+    <row r="2179">
+      <c r="A2179" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2179" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2179" t="inlineStr">
+        <is>
+          <t>7186</t>
+        </is>
+      </c>
+      <c r="D2179" t="inlineStr">
+        <is>
+          <t>SWSCAP</t>
+        </is>
+      </c>
+      <c r="E2179" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F2179" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G2179" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H2179" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I2179" t="n">
+        <v>86500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7186.xlsx
+++ b/data/7186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2179"/>
+  <dimension ref="A1:I2180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77131,6 +77131,41 @@
         <v>86500</v>
       </c>
     </row>
+    <row r="2180">
+      <c r="A2180" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2180" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2180" t="inlineStr">
+        <is>
+          <t>7186</t>
+        </is>
+      </c>
+      <c r="D2180" t="inlineStr">
+        <is>
+          <t>SWSCAP</t>
+        </is>
+      </c>
+      <c r="E2180" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F2180" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G2180" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H2180" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I2180" t="n">
+        <v>38000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7186.xlsx
+++ b/data/7186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2180"/>
+  <dimension ref="A1:I2181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77166,6 +77166,41 @@
         <v>38000</v>
       </c>
     </row>
+    <row r="2181">
+      <c r="A2181" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2181" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2181" t="inlineStr">
+        <is>
+          <t>7186</t>
+        </is>
+      </c>
+      <c r="D2181" t="inlineStr">
+        <is>
+          <t>SWSCAP</t>
+        </is>
+      </c>
+      <c r="E2181" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F2181" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2181" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H2181" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2181" t="n">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7186.xlsx
+++ b/data/7186.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2181"/>
+  <dimension ref="A1:I2182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77201,6 +77201,41 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="2182">
+      <c r="A2182" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2182" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2182" t="inlineStr">
+        <is>
+          <t>7186</t>
+        </is>
+      </c>
+      <c r="D2182" t="inlineStr">
+        <is>
+          <t>SWSCAP</t>
+        </is>
+      </c>
+      <c r="E2182" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F2182" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G2182" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H2182" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I2182" t="n">
+        <v>33000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
